--- a/RUDN/Importance/Varible_reg_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Southern Asia.xlsx
@@ -14,456 +14,762 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Prevalence of acute respiratory infection (ARI) (% of children under 5): Q3</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>ARI treatment (% of children under 5 taken to a health provider)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of diarrhea (% of children under 5): Q1 (lowest)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
+    <t>Number of people who are undernourished</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
   </si>
 </sst>
 </file>
@@ -821,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02554744482040405</v>
+        <v>0.03165938705205917</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -845,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02189780957996845</v>
+        <v>0.02401746809482574</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -853,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02189780957996845</v>
+        <v>0.02074235863983631</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -861,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01824817433953285</v>
+        <v>0.01855895109474659</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -869,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01824817433953285</v>
+        <v>0.01637554541230202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -877,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01824817433953285</v>
+        <v>0.01637554541230202</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -885,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01824817433953285</v>
+        <v>0.01528384257107973</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -893,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01824817433953285</v>
+        <v>0.01528384257107973</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -901,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01459854003041983</v>
+        <v>0.01310043688863516</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -909,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01459854003041983</v>
+        <v>0.01200873404741287</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -917,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01459854003041983</v>
+        <v>0.01200873404741287</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -925,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01459854003041983</v>
+        <v>0.01200873404741287</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -933,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01459854003041983</v>
+        <v>0.01091703027486801</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -941,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01459854003041983</v>
+        <v>0.01091703027486801</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -949,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01459854003041983</v>
+        <v>0.01091703027486801</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -957,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01094890478998423</v>
+        <v>0.01091703027486801</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -965,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01094890478998423</v>
+        <v>0.009825327433645725</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -973,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01094890478998423</v>
+        <v>0.009825327433645725</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -981,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01094890478998423</v>
+        <v>0.009825327433645725</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -989,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01094890478998423</v>
+        <v>0.009825327433645725</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -997,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01094890478998423</v>
+        <v>0.009825327433645725</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1005,7 +1311,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01094890478998423</v>
+        <v>0.008733624592423439</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1013,7 +1319,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01094890478998423</v>
+        <v>0.008733624592423439</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1021,7 +1327,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01094890478998423</v>
+        <v>0.008733624592423439</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1029,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01094890478998423</v>
+        <v>0.008733624592423439</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1037,7 +1343,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01094890478998423</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1045,7 +1351,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01094890478998423</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1053,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01094890478998423</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1061,7 +1367,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.007299270015209913</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1069,7 +1375,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.007299270015209913</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1077,7 +1383,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007299270015209913</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1085,7 +1391,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007299270015209913</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1093,7 +1399,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007299270015209913</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1101,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.007299270015209913</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1109,7 +1415,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.007299270015209913</v>
+        <v>0.007641921285539865</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1117,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1125,7 +1431,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1133,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1141,7 +1447,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1149,7 +1455,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1157,7 +1463,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1165,7 +1471,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1173,7 +1479,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1181,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1189,7 +1495,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.007299270015209913</v>
+        <v>0.006550218444317579</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1197,7 +1503,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1205,7 +1511,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1213,7 +1519,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1221,7 +1527,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1229,7 +1535,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1237,7 +1543,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1245,7 +1551,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1253,7 +1559,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1261,7 +1567,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1269,7 +1575,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1277,7 +1583,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1285,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1293,7 +1599,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1301,7 +1607,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1309,7 +1615,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1317,7 +1623,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1325,7 +1631,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1333,7 +1639,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.007299270015209913</v>
+        <v>0.005458515137434006</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1341,7 +1647,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.007299270015209913</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1349,7 +1655,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.007299270015209913</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1357,7 +1663,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.007299270015209913</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1365,7 +1671,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.007299270015209913</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1373,7 +1679,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.007299270015209913</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1381,7 +1687,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.007299270015209913</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1389,7 +1695,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1397,7 +1703,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1405,7 +1711,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1413,7 +1719,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1421,7 +1727,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1429,7 +1735,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1437,7 +1743,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1445,7 +1751,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1453,7 +1759,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1461,7 +1767,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1469,7 +1775,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1477,7 +1783,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1485,7 +1791,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1493,7 +1799,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1501,7 +1807,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1509,7 +1815,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1517,7 +1823,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1525,7 +1831,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1533,7 +1839,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1541,7 +1847,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1549,7 +1855,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1557,7 +1863,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003649635007604957</v>
+        <v>0.00436681229621172</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1565,7 +1871,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1573,7 +1879,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1581,7 +1887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1589,7 +1895,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1597,7 +1903,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1605,7 +1911,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1613,7 +1919,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1621,7 +1927,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1629,7 +1935,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1637,7 +1943,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1645,7 +1951,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1653,7 +1959,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1661,7 +1967,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1669,7 +1975,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1677,7 +1983,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1685,7 +1991,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1693,7 +1999,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1701,7 +2007,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1709,7 +2015,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1717,7 +2023,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1725,7 +2031,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1733,7 +2039,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1741,7 +2047,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1749,7 +2055,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1757,7 +2063,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1765,7 +2071,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1773,7 +2079,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1781,7 +2087,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1789,7 +2095,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.003649635007604957</v>
+        <v>0.00327510922215879</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1797,7 +2103,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1805,7 +2111,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1813,7 +2119,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1821,7 +2127,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1829,7 +2135,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1837,7 +2143,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1845,7 +2151,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1853,7 +2159,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1861,7 +2167,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1869,7 +2175,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1877,7 +2183,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1885,7 +2191,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1893,7 +2199,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1901,7 +2207,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1909,7 +2215,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1917,7 +2223,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1925,7 +2231,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1933,7 +2239,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1941,7 +2247,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1949,7 +2255,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1957,7 +2263,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1965,7 +2271,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1973,7 +2279,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1981,7 +2287,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1989,7 +2295,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1997,7 +2303,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2005,7 +2311,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2013,7 +2319,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2021,7 +2327,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2029,7 +2335,823 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.003649635007604957</v>
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.00218340614810586</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.00109170307405293</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.00109170307405293</v>
       </c>
     </row>
   </sheetData>
